--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H2">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I2">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J2">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N2">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O2">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P2">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q2">
-        <v>189.7589750943103</v>
+        <v>225.3062467351609</v>
       </c>
       <c r="R2">
-        <v>189.7589750943103</v>
+        <v>2027.756220616448</v>
       </c>
       <c r="S2">
-        <v>0.06990273711592841</v>
+        <v>0.07275755999167759</v>
       </c>
       <c r="T2">
-        <v>0.06990273711592841</v>
+        <v>0.07992228503117076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H3">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I3">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J3">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N3">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O3">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P3">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q3">
-        <v>0.4315719991084794</v>
+        <v>0.5650373931624445</v>
       </c>
       <c r="R3">
-        <v>0.4315719991084794</v>
+        <v>5.085336538462</v>
       </c>
       <c r="S3">
-        <v>0.0001589809598480503</v>
+        <v>0.0001824660550973618</v>
       </c>
       <c r="T3">
-        <v>0.0001589809598480503</v>
+        <v>0.0002004342100762142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H4">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I4">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J4">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N4">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O4">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P4">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q4">
-        <v>1.982010136710605</v>
+        <v>7.604588532635667</v>
       </c>
       <c r="R4">
-        <v>1.982010136710605</v>
+        <v>68.44129679372099</v>
       </c>
       <c r="S4">
-        <v>0.0007301258529602005</v>
+        <v>0.00245572998704131</v>
       </c>
       <c r="T4">
-        <v>0.0007301258529602005</v>
+        <v>0.002697555443123149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H5">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I5">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J5">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N5">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O5">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P5">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q5">
-        <v>0.7507740779136352</v>
+        <v>1.75355481416</v>
       </c>
       <c r="R5">
-        <v>0.7507740779136352</v>
+        <v>15.78199332744</v>
       </c>
       <c r="S5">
-        <v>0.0002765674876551543</v>
+        <v>0.0005662708932340963</v>
       </c>
       <c r="T5">
-        <v>0.0002765674876551543</v>
+        <v>0.000622033830423779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.29599177551754</v>
+        <v>1.532077666666667</v>
       </c>
       <c r="H6">
-        <v>1.29599177551754</v>
+        <v>4.596233</v>
       </c>
       <c r="I6">
-        <v>0.07436197021938715</v>
+        <v>0.07969157180033017</v>
       </c>
       <c r="J6">
-        <v>0.07436197021938715</v>
+        <v>0.08617351379832186</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N6">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O6">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P6">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q6">
-        <v>8.940742074702332</v>
+        <v>11.54917451224517</v>
       </c>
       <c r="R6">
-        <v>8.940742074702332</v>
+        <v>69.295047073471</v>
       </c>
       <c r="S6">
-        <v>0.003293558802995332</v>
+        <v>0.003729544873279794</v>
       </c>
       <c r="T6">
-        <v>0.003293558802995332</v>
+        <v>0.002731205283527967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H7">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I7">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J7">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N7">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O7">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P7">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q7">
-        <v>623.3355628009393</v>
+        <v>665.4140503553139</v>
       </c>
       <c r="R7">
-        <v>623.3355628009393</v>
+        <v>5988.726453197824</v>
       </c>
       <c r="S7">
-        <v>0.2296221401903526</v>
+        <v>0.214880427815837</v>
       </c>
       <c r="T7">
-        <v>0.2296221401903526</v>
+        <v>0.23604055443148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H8">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I8">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J8">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N8">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O8">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P8">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q8">
-        <v>1.417662457439551</v>
+        <v>1.668767847472889</v>
       </c>
       <c r="R8">
-        <v>1.417662457439551</v>
+        <v>15.018910627256</v>
       </c>
       <c r="S8">
-        <v>0.0005222334597468498</v>
+        <v>0.0005388908587049109</v>
       </c>
       <c r="T8">
-        <v>0.0005222334597468498</v>
+        <v>0.0005919575754743944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H9">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I9">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J9">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N9">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O9">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P9">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q9">
-        <v>6.51066650960593</v>
+        <v>22.45920887730534</v>
       </c>
       <c r="R9">
-        <v>6.51066650960593</v>
+        <v>202.132879895748</v>
       </c>
       <c r="S9">
-        <v>0.002398376199303727</v>
+        <v>0.00725269388192755</v>
       </c>
       <c r="T9">
-        <v>0.002398376199303727</v>
+        <v>0.007966895367870307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H10">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I10">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J10">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N10">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O10">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P10">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q10">
-        <v>2.466203151445478</v>
+        <v>5.178906614080001</v>
       </c>
       <c r="R10">
-        <v>2.466203151445478</v>
+        <v>46.61015952672</v>
       </c>
       <c r="S10">
-        <v>0.0009084911556056169</v>
+        <v>0.001672410836918078</v>
       </c>
       <c r="T10">
-        <v>0.0009084911556056169</v>
+        <v>0.001837099754481522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.2571781512633</v>
+        <v>4.524801333333333</v>
       </c>
       <c r="H11">
-        <v>4.2571781512633</v>
+        <v>13.574404</v>
       </c>
       <c r="I11">
-        <v>0.2442701881934764</v>
+        <v>0.2353591715243089</v>
       </c>
       <c r="J11">
-        <v>0.2442701881934764</v>
+        <v>0.254502783126529</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N11">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O11">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P11">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q11">
-        <v>29.36926957063713</v>
+        <v>34.10905423979133</v>
       </c>
       <c r="R11">
-        <v>29.36926957063713</v>
+        <v>204.654325438748</v>
       </c>
       <c r="S11">
-        <v>0.01081894718846761</v>
+        <v>0.01101474813092128</v>
       </c>
       <c r="T11">
-        <v>0.01081894718846761</v>
+        <v>0.008066275997222764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H12">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I12">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J12">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N12">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O12">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P12">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q12">
-        <v>574.5112612183347</v>
+        <v>615.2656085626027</v>
       </c>
       <c r="R12">
-        <v>574.5112612183347</v>
+        <v>5537.390477063424</v>
       </c>
       <c r="S12">
-        <v>0.2116364174243997</v>
+        <v>0.1986861219983369</v>
       </c>
       <c r="T12">
-        <v>0.2116364174243997</v>
+        <v>0.2182515311935341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H13">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I13">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J13">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N13">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O13">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P13">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q13">
-        <v>1.306620534765761</v>
+        <v>1.543002382767333</v>
       </c>
       <c r="R13">
-        <v>1.306620534765761</v>
+        <v>13.887021444906</v>
       </c>
       <c r="S13">
-        <v>0.0004813282307548858</v>
+        <v>0.0004982777444402557</v>
       </c>
       <c r="T13">
-        <v>0.0004813282307548858</v>
+        <v>0.0005473451270273249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H14">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I14">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J14">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N14">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O14">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P14">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q14">
-        <v>6.000702432247042</v>
+        <v>20.766587075147</v>
       </c>
       <c r="R14">
-        <v>6.000702432247042</v>
+        <v>186.899283676323</v>
       </c>
       <c r="S14">
-        <v>0.002210517444162009</v>
+        <v>0.006706099927706139</v>
       </c>
       <c r="T14">
-        <v>0.002210517444162009</v>
+        <v>0.007366476142561001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H15">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I15">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J15">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N15">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O15">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P15">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q15">
-        <v>2.273031682310808</v>
+        <v>4.78860211608</v>
       </c>
       <c r="R15">
-        <v>2.273031682310808</v>
+        <v>43.09741904471999</v>
       </c>
       <c r="S15">
-        <v>0.0008373313360581755</v>
+        <v>0.001546370820985289</v>
       </c>
       <c r="T15">
-        <v>0.0008373313360581755</v>
+        <v>0.001698648079083585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.92372413010306</v>
+        <v>4.183793</v>
       </c>
       <c r="H16">
-        <v>3.92372413010306</v>
+        <v>12.551379</v>
       </c>
       <c r="I16">
-        <v>0.225137120793299</v>
+        <v>0.2176215002093358</v>
       </c>
       <c r="J16">
-        <v>0.225137120793299</v>
+        <v>0.2353223675658887</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N16">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O16">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P16">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q16">
-        <v>27.06884880155047</v>
+        <v>31.5384503875955</v>
       </c>
       <c r="R16">
-        <v>27.06884880155047</v>
+        <v>189.230702325573</v>
       </c>
       <c r="S16">
-        <v>0.009971526357924199</v>
+        <v>0.01018462971786714</v>
       </c>
       <c r="T16">
-        <v>0.009971526357924199</v>
+        <v>0.007458367023682648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H17">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I17">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J17">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N17">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O17">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P17">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q17">
-        <v>565.7215191434848</v>
+        <v>683.2527828441032</v>
       </c>
       <c r="R17">
-        <v>565.7215191434848</v>
+        <v>6149.275045596929</v>
       </c>
       <c r="S17">
-        <v>0.2083984834649141</v>
+        <v>0.2206410432805038</v>
       </c>
       <c r="T17">
-        <v>0.2083984834649141</v>
+        <v>0.2423684405119743</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H18">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I18">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J18">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N18">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O18">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P18">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q18">
-        <v>1.286629877896933</v>
+        <v>1.713504959953556</v>
       </c>
       <c r="R18">
-        <v>1.286629877896933</v>
+        <v>15.421544639582</v>
       </c>
       <c r="S18">
-        <v>0.0004739641435954672</v>
+        <v>0.0005533376980284234</v>
       </c>
       <c r="T18">
-        <v>0.0004739641435954672</v>
+        <v>0.0006078270522730305</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H19">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I19">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J19">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N19">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O19">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P19">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q19">
-        <v>5.908894611917248</v>
+        <v>23.06130590074234</v>
       </c>
       <c r="R19">
-        <v>5.908894611917248</v>
+        <v>207.551753106681</v>
       </c>
       <c r="S19">
-        <v>0.002176697605461308</v>
+        <v>0.007447127506997085</v>
       </c>
       <c r="T19">
-        <v>0.002176697605461308</v>
+        <v>0.008180475641923321</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H20">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I20">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J20">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N20">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O20">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P20">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q20">
-        <v>2.238255406258177</v>
+        <v>5.317745175760001</v>
       </c>
       <c r="R20">
-        <v>2.238255406258177</v>
+        <v>47.85970658184</v>
       </c>
       <c r="S20">
-        <v>0.0008245205750305621</v>
+        <v>0.001717245612371352</v>
       </c>
       <c r="T20">
-        <v>0.0008245205750305621</v>
+        <v>0.001886349587811488</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.86369306473572</v>
+        <v>4.646104333333334</v>
       </c>
       <c r="H21">
-        <v>3.86369306473572</v>
+        <v>13.938313</v>
       </c>
       <c r="I21">
-        <v>0.2216926326573295</v>
+        <v>0.2416687907716983</v>
       </c>
       <c r="J21">
-        <v>0.2216926326573295</v>
+        <v>0.2613256133078609</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N21">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O21">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P21">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q21">
-        <v>26.65470861790259</v>
+        <v>35.02346579107184</v>
       </c>
       <c r="R21">
-        <v>26.65470861790259</v>
+        <v>210.140794746431</v>
       </c>
       <c r="S21">
-        <v>0.009818966868328028</v>
+        <v>0.01131003667379767</v>
       </c>
       <c r="T21">
-        <v>0.009818966868328028</v>
+        <v>0.008282520513878769</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H22">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I22">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J22">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N22">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O22">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P22">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q22">
-        <v>598.5009151056561</v>
+        <v>637.9893563915947</v>
       </c>
       <c r="R22">
-        <v>598.5009151056561</v>
+        <v>3827.936138349568</v>
       </c>
       <c r="S22">
-        <v>0.2204736408988315</v>
+        <v>0.2060242427555792</v>
       </c>
       <c r="T22">
-        <v>0.2204736408988315</v>
+        <v>0.1508748438396045</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H23">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I23">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J23">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N23">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O23">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P23">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q23">
-        <v>1.361180604353649</v>
+        <v>1.599990448665333</v>
       </c>
       <c r="R23">
-        <v>1.361180604353649</v>
+        <v>9.599942691991998</v>
       </c>
       <c r="S23">
-        <v>0.0005014268753619899</v>
+        <v>0.0005166807522727782</v>
       </c>
       <c r="T23">
-        <v>0.0005014268753619899</v>
+        <v>0.0003783735679425221</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H24">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I24">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J24">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N24">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O24">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P24">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q24">
-        <v>6.251271540544654</v>
+        <v>21.533564265806</v>
       </c>
       <c r="R24">
-        <v>6.251271540544654</v>
+        <v>129.201385594836</v>
       </c>
       <c r="S24">
-        <v>0.002302821202115989</v>
+        <v>0.006953777876144095</v>
       </c>
       <c r="T24">
-        <v>0.002302821202115989</v>
+        <v>0.005092362612895108</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H25">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I25">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J25">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N25">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O25">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P25">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q25">
-        <v>2.367945824146627</v>
+        <v>4.96546067184</v>
       </c>
       <c r="R25">
-        <v>2.367945824146627</v>
+        <v>29.79276403104</v>
       </c>
       <c r="S25">
-        <v>0.0008722954704398864</v>
+        <v>0.001603483294195476</v>
       </c>
       <c r="T25">
-        <v>0.0008722954704398864</v>
+        <v>0.00117425642912407</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.08756562492579</v>
+        <v>4.338314</v>
       </c>
       <c r="H26">
-        <v>4.08756562492579</v>
+        <v>8.676627999999999</v>
       </c>
       <c r="I26">
-        <v>0.2345380881365079</v>
+        <v>0.2256589656943268</v>
       </c>
       <c r="J26">
-        <v>0.2345380881365079</v>
+        <v>0.1626757222013997</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N26">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O26">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P26">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q26">
-        <v>28.19915269237472</v>
+        <v>32.70326731145899</v>
       </c>
       <c r="R26">
-        <v>28.19915269237472</v>
+        <v>130.813069245836</v>
       </c>
       <c r="S26">
-        <v>0.01038790368975859</v>
+        <v>0.01056078101613514</v>
       </c>
       <c r="T26">
-        <v>0.01038790368975859</v>
+        <v>0.005155885751833447</v>
       </c>
     </row>
   </sheetData>
